--- a/resultados/Venda de Drone/Com SPAD 3 Drones/vel20/field_100ha_100ha_6%_6m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 3 Drones/vel20/field_100ha_100ha_6%_6m_0_TSP/Planilha_Unificada.xlsx
@@ -3277,28 +3277,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2088.320733921039</v>
+        <v>2182.051091762266</v>
       </c>
       <c r="AB2" t="n">
-        <v>2857.332558359322</v>
+        <v>2985.578569049238</v>
       </c>
       <c r="AC2" t="n">
-        <v>2584.632749280941</v>
+        <v>2700.639140705017</v>
       </c>
       <c r="AD2" t="n">
-        <v>2088320.733921039</v>
+        <v>2182051.091762267</v>
       </c>
       <c r="AE2" t="n">
-        <v>2857332.558359322</v>
+        <v>2985578.569049238</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.138044418969577e-06</v>
+        <v>1.923920555708802e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>18</v>
+        <v>17.80416666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>2584632.749280941</v>
+        <v>2700639.140705017</v>
       </c>
     </row>
     <row r="3">
@@ -3383,28 +3383,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>723.1176480733004</v>
+        <v>775.1900690962043</v>
       </c>
       <c r="AB3" t="n">
-        <v>989.4014677930141</v>
+        <v>1060.649251509634</v>
       </c>
       <c r="AC3" t="n">
-        <v>894.9743803405296</v>
+        <v>959.4223755761276</v>
       </c>
       <c r="AD3" t="n">
-        <v>723117.6480733004</v>
+        <v>775190.0690962042</v>
       </c>
       <c r="AE3" t="n">
-        <v>989401.4677930141</v>
+        <v>1060649.251509634</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.126994953028641e-06</v>
+        <v>3.595790501504209e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.52638888888889</v>
       </c>
       <c r="AH3" t="n">
-        <v>894974.3803405296</v>
+        <v>959422.3755761276</v>
       </c>
     </row>
     <row r="4">
@@ -3489,28 +3489,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>562.7690565073278</v>
+        <v>604.3417419796307</v>
       </c>
       <c r="AB4" t="n">
-        <v>770.0054507318546</v>
+        <v>826.887033052501</v>
       </c>
       <c r="AC4" t="n">
-        <v>696.5172112234433</v>
+        <v>747.9700951612093</v>
       </c>
       <c r="AD4" t="n">
-        <v>562769.0565073278</v>
+        <v>604341.7419796307</v>
       </c>
       <c r="AE4" t="n">
-        <v>770005.4507318545</v>
+        <v>826887.033052501</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.485578875836899e-06</v>
+        <v>4.201994414583588e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.151388888888889</v>
       </c>
       <c r="AH4" t="n">
-        <v>696517.2112234433</v>
+        <v>747970.0951612093</v>
       </c>
     </row>
     <row r="5">
@@ -3595,28 +3595,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>490.3342796929467</v>
+        <v>531.9922165112699</v>
       </c>
       <c r="AB5" t="n">
-        <v>670.8969934975991</v>
+        <v>727.8952204708947</v>
       </c>
       <c r="AC5" t="n">
-        <v>606.8675260480318</v>
+        <v>658.4259222365101</v>
       </c>
       <c r="AD5" t="n">
-        <v>490334.2796929467</v>
+        <v>531992.2165112699</v>
       </c>
       <c r="AE5" t="n">
-        <v>670896.993497599</v>
+        <v>727895.2204708947</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.677854551289007e-06</v>
+        <v>4.527045983923955e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>8</v>
+        <v>7.566666666666666</v>
       </c>
       <c r="AH5" t="n">
-        <v>606867.5260480318</v>
+        <v>658425.9222365101</v>
       </c>
     </row>
     <row r="6">
@@ -3701,28 +3701,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>454.0400496201017</v>
+        <v>485.2835917423952</v>
       </c>
       <c r="AB6" t="n">
-        <v>621.2376267235079</v>
+        <v>663.9864194230281</v>
       </c>
       <c r="AC6" t="n">
-        <v>561.9475795415009</v>
+        <v>600.6164874640862</v>
       </c>
       <c r="AD6" t="n">
-        <v>454040.0496201017</v>
+        <v>485283.5917423952</v>
       </c>
       <c r="AE6" t="n">
-        <v>621237.6267235079</v>
+        <v>663986.4194230281</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.798063319553452e-06</v>
+        <v>4.730264870977416e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>8</v>
+        <v>7.241666666666666</v>
       </c>
       <c r="AH6" t="n">
-        <v>561947.5795415009</v>
+        <v>600616.4874640862</v>
       </c>
     </row>
     <row r="7">
@@ -3807,28 +3807,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>428.0692615405947</v>
+        <v>459.3128036628883</v>
       </c>
       <c r="AB7" t="n">
-        <v>585.7032487228195</v>
+        <v>628.4520414223397</v>
       </c>
       <c r="AC7" t="n">
-        <v>529.8045527043854</v>
+        <v>568.4734606269707</v>
       </c>
       <c r="AD7" t="n">
-        <v>428069.2615405946</v>
+        <v>459312.8036628882</v>
       </c>
       <c r="AE7" t="n">
-        <v>585703.2487228195</v>
+        <v>628452.0414223396</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.882530403079075e-06</v>
+        <v>4.873060666613283e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>8</v>
+        <v>7.029166666666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>529804.5527043854</v>
+        <v>568473.4606269706</v>
       </c>
     </row>
     <row r="8">
@@ -3913,28 +3913,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>397.3286784181436</v>
+        <v>438.9012743818953</v>
       </c>
       <c r="AB8" t="n">
-        <v>543.6426267158689</v>
+        <v>600.5240865669668</v>
       </c>
       <c r="AC8" t="n">
-        <v>491.7581374293243</v>
+        <v>543.2109105858639</v>
       </c>
       <c r="AD8" t="n">
-        <v>397328.6784181436</v>
+        <v>438901.2743818953</v>
       </c>
       <c r="AE8" t="n">
-        <v>543642.6267158689</v>
+        <v>600524.0865669668</v>
       </c>
       <c r="AF8" t="n">
-        <v>2.940592405226221e-06</v>
+        <v>4.971217362059008e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>7</v>
+        <v>6.890277777777778</v>
       </c>
       <c r="AH8" t="n">
-        <v>491758.1374293243</v>
+        <v>543210.9105858639</v>
       </c>
     </row>
     <row r="9">
@@ -4019,28 +4019,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>380.2984184025974</v>
+        <v>421.8710143663491</v>
       </c>
       <c r="AB9" t="n">
-        <v>520.3410736405525</v>
+        <v>577.2225334916503</v>
       </c>
       <c r="AC9" t="n">
-        <v>470.680451875581</v>
+        <v>522.1332250321204</v>
       </c>
       <c r="AD9" t="n">
-        <v>380298.4184025974</v>
+        <v>421871.0143663491</v>
       </c>
       <c r="AE9" t="n">
-        <v>520341.0736405525</v>
+        <v>577222.5334916504</v>
       </c>
       <c r="AF9" t="n">
-        <v>2.988880150730507e-06</v>
+        <v>5.052850191688493e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>7</v>
+        <v>6.779166666666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>470680.4518755809</v>
+        <v>522133.2250321204</v>
       </c>
     </row>
     <row r="10">
@@ -4125,28 +4125,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>373.0073348424802</v>
+        <v>414.5799308062319</v>
       </c>
       <c r="AB10" t="n">
-        <v>510.365091453695</v>
+        <v>567.246551304793</v>
       </c>
       <c r="AC10" t="n">
-        <v>461.6565634272583</v>
+        <v>513.1093365837978</v>
       </c>
       <c r="AD10" t="n">
-        <v>373007.3348424803</v>
+        <v>414579.9308062319</v>
       </c>
       <c r="AE10" t="n">
-        <v>510365.091453695</v>
+        <v>567246.551304793</v>
       </c>
       <c r="AF10" t="n">
-        <v>3.00842866401623e-06</v>
+        <v>5.085897923320973e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>7</v>
+        <v>6.734722222222222</v>
       </c>
       <c r="AH10" t="n">
-        <v>461656.5634272583</v>
+        <v>513109.3365837978</v>
       </c>
     </row>
     <row r="11">
@@ -4231,28 +4231,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>373.4519075542906</v>
+        <v>415.0245035180423</v>
       </c>
       <c r="AB11" t="n">
-        <v>510.9733754511578</v>
+        <v>567.8548353022557</v>
       </c>
       <c r="AC11" t="n">
-        <v>462.2067936537351</v>
+        <v>513.6595668102747</v>
       </c>
       <c r="AD11" t="n">
-        <v>373451.9075542906</v>
+        <v>415024.5035180423</v>
       </c>
       <c r="AE11" t="n">
-        <v>510973.3754511578</v>
+        <v>567854.8353022557</v>
       </c>
       <c r="AF11" t="n">
-        <v>3.009012201726252e-06</v>
+        <v>5.086884422772691e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>7</v>
+        <v>6.733333333333333</v>
       </c>
       <c r="AH11" t="n">
-        <v>462206.7936537351</v>
+        <v>513659.5668102746</v>
       </c>
     </row>
   </sheetData>
@@ -4528,28 +4528,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1282.751737665232</v>
+        <v>1353.300461226232</v>
       </c>
       <c r="AB2" t="n">
-        <v>1755.117518486242</v>
+        <v>1851.645394452425</v>
       </c>
       <c r="AC2" t="n">
-        <v>1587.611565844823</v>
+        <v>1674.926956806518</v>
       </c>
       <c r="AD2" t="n">
-        <v>1282751.737665232</v>
+        <v>1353300.461226232</v>
       </c>
       <c r="AE2" t="n">
-        <v>1755117.518486242</v>
+        <v>1851645.394452425</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.494213367586002e-06</v>
+        <v>2.58766527324647e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.02777777777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>1587611.565844823</v>
+        <v>1674926.956806518</v>
       </c>
     </row>
     <row r="3">
@@ -4634,28 +4634,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>565.9009224613656</v>
+        <v>616.2684208260947</v>
       </c>
       <c r="AB3" t="n">
-        <v>774.2906078983436</v>
+        <v>843.2056412181687</v>
       </c>
       <c r="AC3" t="n">
-        <v>700.3933990042183</v>
+        <v>762.7312782668561</v>
       </c>
       <c r="AD3" t="n">
-        <v>565900.9224613656</v>
+        <v>616268.4208260947</v>
       </c>
       <c r="AE3" t="n">
-        <v>774290.6078983436</v>
+        <v>843205.6412181687</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.409213433001004e-06</v>
+        <v>4.172254158378614e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="AH3" t="n">
-        <v>700393.3990042183</v>
+        <v>762731.2782668561</v>
       </c>
     </row>
     <row r="4">
@@ -4740,28 +4740,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>453.8426416088816</v>
+        <v>494.2049129843222</v>
       </c>
       <c r="AB4" t="n">
-        <v>620.96752437353</v>
+        <v>676.1929647271481</v>
       </c>
       <c r="AC4" t="n">
-        <v>561.7032553807137</v>
+        <v>611.6580572163749</v>
       </c>
       <c r="AD4" t="n">
-        <v>453842.6416088816</v>
+        <v>494204.9129843222</v>
       </c>
       <c r="AE4" t="n">
-        <v>620967.5243735299</v>
+        <v>676192.9647271482</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.734888864497883e-06</v>
+        <v>4.736255942003084e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.663888888888888</v>
       </c>
       <c r="AH4" t="n">
-        <v>561703.2553807137</v>
+        <v>611658.0572163749</v>
       </c>
     </row>
     <row r="5">
@@ -4846,28 +4846,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>407.150064848236</v>
+        <v>437.4218578883674</v>
       </c>
       <c r="AB5" t="n">
-        <v>557.0806809185107</v>
+        <v>598.4998836532726</v>
       </c>
       <c r="AC5" t="n">
-        <v>503.9136825992934</v>
+        <v>541.379894757266</v>
       </c>
       <c r="AD5" t="n">
-        <v>407150.064848236</v>
+        <v>437421.8578883674</v>
       </c>
       <c r="AE5" t="n">
-        <v>557080.6809185107</v>
+        <v>598499.8836532726</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.907385165795812e-06</v>
+        <v>5.034983485414934e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>8</v>
+        <v>7.209722222222221</v>
       </c>
       <c r="AH5" t="n">
-        <v>503913.6825992934</v>
+        <v>541379.894757266</v>
       </c>
     </row>
     <row r="6">
@@ -4952,28 +4952,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>366.0605654725659</v>
+        <v>406.3374959934347</v>
       </c>
       <c r="AB6" t="n">
-        <v>500.8602151319431</v>
+        <v>555.9688883633637</v>
       </c>
       <c r="AC6" t="n">
-        <v>453.0588191614767</v>
+        <v>502.9079979651991</v>
       </c>
       <c r="AD6" t="n">
-        <v>366060.5654725659</v>
+        <v>406337.4959934347</v>
       </c>
       <c r="AE6" t="n">
-        <v>500860.2151319431</v>
+        <v>555968.8883633637</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.017553407219687e-06</v>
+        <v>5.225771855223026e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>7</v>
+        <v>6.945833333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>453058.8191614767</v>
+        <v>502907.9979651991</v>
       </c>
     </row>
     <row r="7">
@@ -5058,28 +5058,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>345.5788830045343</v>
+        <v>385.8558135254031</v>
       </c>
       <c r="AB7" t="n">
-        <v>472.8362735911238</v>
+        <v>527.9449468225445</v>
       </c>
       <c r="AC7" t="n">
-        <v>427.7094432694643</v>
+        <v>477.5586220731867</v>
       </c>
       <c r="AD7" t="n">
-        <v>345578.8830045343</v>
+        <v>385855.8135254031</v>
       </c>
       <c r="AE7" t="n">
-        <v>472836.2735911238</v>
+        <v>527944.9468225444</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.082296113481115e-06</v>
+        <v>5.337892691726686e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>7</v>
+        <v>6.800000000000001</v>
       </c>
       <c r="AH7" t="n">
-        <v>427709.4432694642</v>
+        <v>477558.6220731867</v>
       </c>
     </row>
     <row r="8">
@@ -5164,28 +5164,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>343.3028288236867</v>
+        <v>383.5797593445555</v>
       </c>
       <c r="AB8" t="n">
-        <v>469.7220758484644</v>
+        <v>524.830749079885</v>
       </c>
       <c r="AC8" t="n">
-        <v>424.8924601885602</v>
+        <v>474.7416389922826</v>
       </c>
       <c r="AD8" t="n">
-        <v>343302.8288236867</v>
+        <v>383579.7593445555</v>
       </c>
       <c r="AE8" t="n">
-        <v>469722.0758484644</v>
+        <v>524830.749079885</v>
       </c>
       <c r="AF8" t="n">
-        <v>3.09120012203455e-06</v>
+        <v>5.353312573670079e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>7</v>
+        <v>6.780555555555555</v>
       </c>
       <c r="AH8" t="n">
-        <v>424892.4601885602</v>
+        <v>474741.6389922826</v>
       </c>
     </row>
   </sheetData>
@@ -5461,28 +5461,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>419.6362870082099</v>
+        <v>465.1277742172151</v>
       </c>
       <c r="AB2" t="n">
-        <v>574.1648809310315</v>
+        <v>636.408340673165</v>
       </c>
       <c r="AC2" t="n">
-        <v>519.3673905404445</v>
+        <v>575.6704218440334</v>
       </c>
       <c r="AD2" t="n">
-        <v>419636.2870082099</v>
+        <v>465127.7742172151</v>
       </c>
       <c r="AE2" t="n">
-        <v>574164.8809310314</v>
+        <v>636408.3406731649</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.633938151700648e-06</v>
+        <v>4.983977779429791e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.880555555555555</v>
       </c>
       <c r="AH2" t="n">
-        <v>519367.3905404445</v>
+        <v>575670.4218440334</v>
       </c>
     </row>
     <row r="3">
@@ -5567,28 +5567,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>284.1875459522107</v>
+        <v>311.5337322989079</v>
       </c>
       <c r="AB3" t="n">
-        <v>388.8379378414929</v>
+        <v>426.2541964296402</v>
       </c>
       <c r="AC3" t="n">
-        <v>351.7277907913735</v>
+        <v>385.5730941739166</v>
       </c>
       <c r="AD3" t="n">
-        <v>284187.5459522107</v>
+        <v>311533.7322989079</v>
       </c>
       <c r="AE3" t="n">
-        <v>388837.9378414929</v>
+        <v>426254.1964296402</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.244555103178594e-06</v>
+        <v>6.139396450116602e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.208333333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>351727.7907913735</v>
+        <v>385573.0941739166</v>
       </c>
     </row>
     <row r="4">
@@ -5673,28 +5673,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>284.2327895930302</v>
+        <v>311.5789759397273</v>
       </c>
       <c r="AB4" t="n">
-        <v>388.8998421868707</v>
+        <v>426.3161007750179</v>
       </c>
       <c r="AC4" t="n">
-        <v>351.7837870729116</v>
+        <v>385.6290904554548</v>
       </c>
       <c r="AD4" t="n">
-        <v>284232.7895930302</v>
+        <v>311578.9759397273</v>
       </c>
       <c r="AE4" t="n">
-        <v>388899.8421868708</v>
+        <v>426316.1007750179</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.25533267761174e-06</v>
+        <v>6.159789940167336e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.184722222222222</v>
       </c>
       <c r="AH4" t="n">
-        <v>351783.7870729116</v>
+        <v>385629.0904554548</v>
       </c>
     </row>
   </sheetData>
@@ -5970,28 +5970,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>633.7024818951797</v>
+        <v>681.1003844440213</v>
       </c>
       <c r="AB2" t="n">
-        <v>867.059692709382</v>
+        <v>931.911594024589</v>
       </c>
       <c r="AC2" t="n">
-        <v>784.3087325631197</v>
+        <v>842.9712594370184</v>
       </c>
       <c r="AD2" t="n">
-        <v>633702.4818951797</v>
+        <v>681100.3844440213</v>
       </c>
       <c r="AE2" t="n">
-        <v>867059.692709382</v>
+        <v>931911.5940245891</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.171823531759421e-06</v>
+        <v>3.956590809567795e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.30277777777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>784308.7325631197</v>
+        <v>842971.2594370184</v>
       </c>
     </row>
     <row r="3">
@@ -6076,28 +6076,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>369.3739086389166</v>
+        <v>407.3604317548064</v>
       </c>
       <c r="AB3" t="n">
-        <v>505.3936774265283</v>
+        <v>557.3685142008131</v>
       </c>
       <c r="AC3" t="n">
-        <v>457.1596141774208</v>
+        <v>504.1740454771096</v>
       </c>
       <c r="AD3" t="n">
-        <v>369373.9086389166</v>
+        <v>407360.4317548064</v>
       </c>
       <c r="AE3" t="n">
-        <v>505393.6774265282</v>
+        <v>557368.5142008131</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.930616561548521e-06</v>
+        <v>5.338946919134171e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.634722222222223</v>
       </c>
       <c r="AH3" t="n">
-        <v>457159.6141774208</v>
+        <v>504174.0454771096</v>
       </c>
     </row>
     <row r="4">
@@ -6182,28 +6182,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>312.3443069289683</v>
+        <v>340.8342887744367</v>
       </c>
       <c r="AB4" t="n">
-        <v>427.3632603985178</v>
+        <v>466.3445104487799</v>
       </c>
       <c r="AC4" t="n">
-        <v>386.5763106341856</v>
+        <v>421.8372448901788</v>
       </c>
       <c r="AD4" t="n">
-        <v>312344.3069289683</v>
+        <v>340834.2887744367</v>
       </c>
       <c r="AE4" t="n">
-        <v>427363.2603985178</v>
+        <v>466344.5104487799</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.190313878750226e-06</v>
+        <v>5.812059031367928e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.013888888888889</v>
       </c>
       <c r="AH4" t="n">
-        <v>386576.3106341856</v>
+        <v>421837.2448901788</v>
       </c>
     </row>
     <row r="5">
@@ -6288,28 +6288,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>298.1154731757605</v>
+        <v>336.0166554370787</v>
       </c>
       <c r="AB5" t="n">
-        <v>407.8947423255367</v>
+        <v>459.7528119776239</v>
       </c>
       <c r="AC5" t="n">
-        <v>368.9658406018531</v>
+        <v>415.874648869603</v>
       </c>
       <c r="AD5" t="n">
-        <v>298115.4731757605</v>
+        <v>336016.6554370787</v>
       </c>
       <c r="AE5" t="n">
-        <v>407894.7423255367</v>
+        <v>459752.811977624</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.217540210392341e-06</v>
+        <v>5.861659494747274e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.954166666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>368965.8406018531</v>
+        <v>415874.6488696031</v>
       </c>
     </row>
   </sheetData>
@@ -6585,28 +6585,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>295.0998872921314</v>
+        <v>338.9424554183248</v>
       </c>
       <c r="AB2" t="n">
-        <v>403.7686846812956</v>
+        <v>463.7560205891502</v>
       </c>
       <c r="AC2" t="n">
-        <v>365.2335681082201</v>
+        <v>419.4957968697839</v>
       </c>
       <c r="AD2" t="n">
-        <v>295099.8872921314</v>
+        <v>338942.4554183248</v>
       </c>
       <c r="AE2" t="n">
-        <v>403768.6846812956</v>
+        <v>463756.0205891503</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.051955349466783e-06</v>
+        <v>5.980849143513991e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.958333333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>365233.5681082201</v>
+        <v>419495.7968697839</v>
       </c>
     </row>
     <row r="3">
@@ -6691,28 +6691,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>266.909485157242</v>
+        <v>302.1200850255113</v>
       </c>
       <c r="AB3" t="n">
-        <v>365.1973328075718</v>
+        <v>413.3740289293718</v>
       </c>
       <c r="AC3" t="n">
-        <v>330.3434119220921</v>
+        <v>373.9221917824452</v>
       </c>
       <c r="AD3" t="n">
-        <v>266909.485157242</v>
+        <v>302120.0850255113</v>
       </c>
       <c r="AE3" t="n">
-        <v>365197.3328075718</v>
+        <v>413374.0289293718</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.236821641981763e-06</v>
+        <v>6.343127512837446e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.504166666666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>330343.4119220921</v>
+        <v>373922.1917824452</v>
       </c>
     </row>
   </sheetData>
@@ -6988,28 +6988,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1433.590909044625</v>
+        <v>1514.911220110182</v>
       </c>
       <c r="AB2" t="n">
-        <v>1961.502327322115</v>
+        <v>2072.768364520934</v>
       </c>
       <c r="AC2" t="n">
-        <v>1774.299298188298</v>
+        <v>1874.946260959726</v>
       </c>
       <c r="AD2" t="n">
-        <v>1433590.909044625</v>
+        <v>1514911.220110182</v>
       </c>
       <c r="AE2" t="n">
-        <v>1961502.327322114</v>
+        <v>2072768.364520934</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.400926056551997e-06</v>
+        <v>2.410266953099633e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.82777777777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>1774299.298188298</v>
+        <v>1874946.260959727</v>
       </c>
     </row>
     <row r="3">
@@ -7094,28 +7094,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>603.2544431876101</v>
+        <v>654.047634783119</v>
       </c>
       <c r="AB3" t="n">
-        <v>825.3993428770211</v>
+        <v>894.8968284554591</v>
       </c>
       <c r="AC3" t="n">
-        <v>746.6243880480911</v>
+        <v>809.4891311432566</v>
       </c>
       <c r="AD3" t="n">
-        <v>603254.4431876101</v>
+        <v>654047.634783119</v>
       </c>
       <c r="AE3" t="n">
-        <v>825399.3428770212</v>
+        <v>894896.8284554591</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.328046866263306e-06</v>
+        <v>4.005360883094789e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.922222222222222</v>
       </c>
       <c r="AH3" t="n">
-        <v>746624.3880480911</v>
+        <v>809489.1311432566</v>
       </c>
     </row>
     <row r="4">
@@ -7200,28 +7200,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>477.7127175008707</v>
+        <v>518.4155434609351</v>
       </c>
       <c r="AB4" t="n">
-        <v>653.6276152823756</v>
+        <v>709.3190174428839</v>
       </c>
       <c r="AC4" t="n">
-        <v>591.2463130519445</v>
+        <v>641.622605953628</v>
       </c>
       <c r="AD4" t="n">
-        <v>477712.7175008706</v>
+        <v>518415.543460935</v>
       </c>
       <c r="AE4" t="n">
-        <v>653627.6152823756</v>
+        <v>709319.0174428839</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.669342186115089e-06</v>
+        <v>4.592553067035577e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.781944444444444</v>
       </c>
       <c r="AH4" t="n">
-        <v>591246.3130519445</v>
+        <v>641622.605953628</v>
       </c>
     </row>
     <row r="5">
@@ -7306,28 +7306,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>427.5209385239659</v>
+        <v>468.053172283438</v>
       </c>
       <c r="AB5" t="n">
-        <v>584.9530089811639</v>
+        <v>640.4109993668254</v>
       </c>
       <c r="AC5" t="n">
-        <v>529.1259147907052</v>
+        <v>579.2910724097375</v>
       </c>
       <c r="AD5" t="n">
-        <v>427520.9385239659</v>
+        <v>468053.172283438</v>
       </c>
       <c r="AE5" t="n">
-        <v>584953.0089811638</v>
+        <v>640410.9993668254</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.84821563157641e-06</v>
+        <v>4.900301468434869e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>8</v>
+        <v>7.293055555555556</v>
       </c>
       <c r="AH5" t="n">
-        <v>529125.9147907052</v>
+        <v>579291.0724097375</v>
       </c>
     </row>
     <row r="6">
@@ -7412,28 +7412,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>396.4582353370074</v>
+        <v>426.9854443156067</v>
       </c>
       <c r="AB6" t="n">
-        <v>542.4516480910198</v>
+        <v>584.2203221809496</v>
       </c>
       <c r="AC6" t="n">
-        <v>490.6808241328818</v>
+        <v>528.4631545903711</v>
       </c>
       <c r="AD6" t="n">
-        <v>396458.2353370074</v>
+        <v>426985.4443156067</v>
       </c>
       <c r="AE6" t="n">
-        <v>542451.6480910198</v>
+        <v>584220.3221809495</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.956796000644068e-06</v>
+        <v>5.087111952896311e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>8</v>
+        <v>7.024999999999999</v>
       </c>
       <c r="AH6" t="n">
-        <v>490680.8241328818</v>
+        <v>528463.1545903711</v>
       </c>
     </row>
     <row r="7">
@@ -7518,28 +7518,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>362.2579762012242</v>
+        <v>402.8754613067169</v>
       </c>
       <c r="AB7" t="n">
-        <v>495.6573447324946</v>
+        <v>551.2319797708054</v>
       </c>
       <c r="AC7" t="n">
-        <v>448.352503410677</v>
+        <v>498.6231732804216</v>
       </c>
       <c r="AD7" t="n">
-        <v>362257.9762012242</v>
+        <v>402875.4613067169</v>
       </c>
       <c r="AE7" t="n">
-        <v>495657.3447324946</v>
+        <v>551231.9797708055</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.030678510725918e-06</v>
+        <v>5.214225423039497e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>7</v>
+        <v>6.854166666666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>448352.503410677</v>
+        <v>498623.1732804216</v>
       </c>
     </row>
     <row r="8">
@@ -7624,28 +7624,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>349.6158184923132</v>
+        <v>390.2333035978058</v>
       </c>
       <c r="AB8" t="n">
-        <v>478.3597868225272</v>
+        <v>533.934421860838</v>
       </c>
       <c r="AC8" t="n">
-        <v>432.705800150362</v>
+        <v>482.9764700201066</v>
       </c>
       <c r="AD8" t="n">
-        <v>349615.8184923132</v>
+        <v>390233.3035978058</v>
       </c>
       <c r="AE8" t="n">
-        <v>478359.7868225272</v>
+        <v>533934.4218608381</v>
       </c>
       <c r="AF8" t="n">
-        <v>3.072106557877076e-06</v>
+        <v>5.285501599617761e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>7</v>
+        <v>6.761111111111111</v>
       </c>
       <c r="AH8" t="n">
-        <v>432705.800150362</v>
+        <v>482976.4700201066</v>
       </c>
     </row>
     <row r="9">
@@ -7730,28 +7730,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>351.0204767130446</v>
+        <v>391.6379618185373</v>
       </c>
       <c r="AB9" t="n">
-        <v>480.2817021692791</v>
+        <v>535.8563372075898</v>
       </c>
       <c r="AC9" t="n">
-        <v>434.4442905938449</v>
+        <v>484.7149604635895</v>
       </c>
       <c r="AD9" t="n">
-        <v>351020.4767130446</v>
+        <v>391637.9618185373</v>
       </c>
       <c r="AE9" t="n">
-        <v>480281.702169279</v>
+        <v>535856.3372075899</v>
       </c>
       <c r="AF9" t="n">
-        <v>3.068965803399913e-06</v>
+        <v>5.280097990563092e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>7</v>
+        <v>6.768055555555555</v>
       </c>
       <c r="AH9" t="n">
-        <v>434444.2905938449</v>
+        <v>484714.9604635895</v>
       </c>
     </row>
   </sheetData>
@@ -8027,28 +8027,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>257.6559061709798</v>
+        <v>292.1258081026681</v>
       </c>
       <c r="AB2" t="n">
-        <v>352.5361777993083</v>
+        <v>399.6994183271582</v>
       </c>
       <c r="AC2" t="n">
-        <v>318.8906197778807</v>
+        <v>361.5526668236704</v>
       </c>
       <c r="AD2" t="n">
-        <v>257655.9061709798</v>
+        <v>292125.8081026681</v>
       </c>
       <c r="AE2" t="n">
-        <v>352536.1777993083</v>
+        <v>399699.4183271583</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.187571758818595e-06</v>
+        <v>6.389998802492352e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.798611111111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>318890.6197778807</v>
+        <v>361552.6668236704</v>
       </c>
     </row>
     <row r="3">
@@ -8133,28 +8133,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>259.0479821289632</v>
+        <v>293.5178840606483</v>
       </c>
       <c r="AB3" t="n">
-        <v>354.4408775392448</v>
+        <v>401.6041180669237</v>
       </c>
       <c r="AC3" t="n">
-        <v>320.6135376477945</v>
+        <v>363.2755846935354</v>
       </c>
       <c r="AD3" t="n">
-        <v>259047.9821289632</v>
+        <v>293517.8840606483</v>
       </c>
       <c r="AE3" t="n">
-        <v>354440.8775392448</v>
+        <v>401604.1180669236</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.193657302071997e-06</v>
+        <v>6.40219824992257e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.783333333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>320613.5376477945</v>
+        <v>363275.5846935355</v>
       </c>
     </row>
   </sheetData>
@@ -8430,28 +8430,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>897.8974474212084</v>
+        <v>966.4265279222698</v>
       </c>
       <c r="AB2" t="n">
-        <v>1228.542900001372</v>
+        <v>1322.307411232583</v>
       </c>
       <c r="AC2" t="n">
-        <v>1111.29248989603</v>
+        <v>1196.108247774652</v>
       </c>
       <c r="AD2" t="n">
-        <v>897897.4474212084</v>
+        <v>966426.5279222698</v>
       </c>
       <c r="AE2" t="n">
-        <v>1228542.900001372</v>
+        <v>1322307.411232583</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.803990637167803e-06</v>
+        <v>3.195001467375825e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.97083333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>1111292.48989603</v>
+        <v>1196108.247774652</v>
       </c>
     </row>
     <row r="3">
@@ -8536,28 +8536,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>471.3734325662094</v>
+        <v>510.5451881974486</v>
       </c>
       <c r="AB3" t="n">
-        <v>644.9539259652586</v>
+        <v>698.550450155813</v>
       </c>
       <c r="AC3" t="n">
-        <v>583.4004284696539</v>
+        <v>631.8817756146558</v>
       </c>
       <c r="AD3" t="n">
-        <v>471373.4325662093</v>
+        <v>510545.1881974486</v>
       </c>
       <c r="AE3" t="n">
-        <v>644953.9259652586</v>
+        <v>698550.450155813</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.643634615853041e-06</v>
+        <v>4.682073344968433e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.169444444444444</v>
       </c>
       <c r="AH3" t="n">
-        <v>583400.4284696539</v>
+        <v>631881.7756146558</v>
       </c>
     </row>
     <row r="4">
@@ -8642,28 +8642,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>382.803075788305</v>
+        <v>421.8894905649726</v>
       </c>
       <c r="AB4" t="n">
-        <v>523.7680563733628</v>
+        <v>577.2478134417192</v>
       </c>
       <c r="AC4" t="n">
-        <v>473.7803681861724</v>
+        <v>522.1560922992354</v>
       </c>
       <c r="AD4" t="n">
-        <v>382803.075788305</v>
+        <v>421889.4905649726</v>
       </c>
       <c r="AE4" t="n">
-        <v>523768.0563733628</v>
+        <v>577247.8134417193</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.948549771816329e-06</v>
+        <v>5.222100743479379e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.32361111111111</v>
       </c>
       <c r="AH4" t="n">
-        <v>473780.3681861724</v>
+        <v>522156.0922992354</v>
       </c>
     </row>
     <row r="5">
@@ -8748,28 +8748,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>333.1354137511162</v>
+        <v>372.3070798738045</v>
       </c>
       <c r="AB5" t="n">
-        <v>455.8105699914781</v>
+        <v>509.406971712484</v>
       </c>
       <c r="AC5" t="n">
-        <v>412.3086489256436</v>
+        <v>460.7898852894189</v>
       </c>
       <c r="AD5" t="n">
-        <v>333135.4137511163</v>
+        <v>372307.0798738045</v>
       </c>
       <c r="AE5" t="n">
-        <v>455810.5699914781</v>
+        <v>509406.971712484</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.106060762632652e-06</v>
+        <v>5.501064412368512e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.952777777777778</v>
       </c>
       <c r="AH5" t="n">
-        <v>412308.6489256436</v>
+        <v>460789.8852894189</v>
       </c>
     </row>
     <row r="6">
@@ -8854,28 +8854,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>319.4950808407977</v>
+        <v>358.6667469634859</v>
       </c>
       <c r="AB6" t="n">
-        <v>437.147264734563</v>
+        <v>490.7436664555688</v>
       </c>
       <c r="AC6" t="n">
-        <v>395.4265433283349</v>
+        <v>443.9077796921103</v>
       </c>
       <c r="AD6" t="n">
-        <v>319495.0808407977</v>
+        <v>358666.746963486</v>
       </c>
       <c r="AE6" t="n">
-        <v>437147.264734563</v>
+        <v>490743.6664555688</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.158927235364686e-06</v>
+        <v>5.594694863920639e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>7</v>
+        <v>6.836111111111111</v>
       </c>
       <c r="AH6" t="n">
-        <v>395426.5433283349</v>
+        <v>443907.7796921103</v>
       </c>
     </row>
     <row r="7">
@@ -8960,28 +8960,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>320.8710828290618</v>
+        <v>360.04274895175</v>
       </c>
       <c r="AB7" t="n">
-        <v>439.0299713598293</v>
+        <v>492.6263730808351</v>
       </c>
       <c r="AC7" t="n">
-        <v>397.1295670756813</v>
+        <v>445.6108034394566</v>
       </c>
       <c r="AD7" t="n">
-        <v>320871.0828290618</v>
+        <v>360042.74895175</v>
       </c>
       <c r="AE7" t="n">
-        <v>439029.9713598293</v>
+        <v>492626.3730808351</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.159238214616051e-06</v>
+        <v>5.59524563128271e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>7</v>
+        <v>6.836111111111111</v>
       </c>
       <c r="AH7" t="n">
-        <v>397129.5670756813</v>
+        <v>445610.8034394566</v>
       </c>
     </row>
   </sheetData>
@@ -9257,28 +9257,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1139.780783585601</v>
+        <v>1209.625533241788</v>
       </c>
       <c r="AB2" t="n">
-        <v>1559.498351681155</v>
+        <v>1655.063019493635</v>
       </c>
       <c r="AC2" t="n">
-        <v>1410.662017766388</v>
+        <v>1497.106127808699</v>
       </c>
       <c r="AD2" t="n">
-        <v>1139780.783585601</v>
+        <v>1209625.533241788</v>
       </c>
       <c r="AE2" t="n">
-        <v>1559498.351681155</v>
+        <v>1655063.019493636</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.592350233328814e-06</v>
+        <v>2.776919764170018e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.28888888888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>1410662.017766388</v>
+        <v>1497106.127808699</v>
       </c>
     </row>
     <row r="3">
@@ -9363,28 +9363,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>532.9645615725757</v>
+        <v>573.05866920245</v>
       </c>
       <c r="AB3" t="n">
-        <v>729.2256258806098</v>
+        <v>784.0841527669946</v>
       </c>
       <c r="AC3" t="n">
-        <v>659.6293556211576</v>
+        <v>709.2522616959319</v>
       </c>
       <c r="AD3" t="n">
-        <v>532964.5615725757</v>
+        <v>573058.66920245</v>
       </c>
       <c r="AE3" t="n">
-        <v>729225.6258806097</v>
+        <v>784084.1527669947</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.485419221826088e-06</v>
+        <v>4.334354098035752e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.513888888888889</v>
       </c>
       <c r="AH3" t="n">
-        <v>659629.3556211577</v>
+        <v>709252.2616959319</v>
       </c>
     </row>
     <row r="4">
@@ -9469,28 +9469,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>430.4284878923623</v>
+        <v>470.4372546676649</v>
       </c>
       <c r="AB4" t="n">
-        <v>588.9312462990289</v>
+        <v>643.673006063216</v>
       </c>
       <c r="AC4" t="n">
-        <v>532.7244747224443</v>
+        <v>582.2417577652799</v>
       </c>
       <c r="AD4" t="n">
-        <v>430428.4878923623</v>
+        <v>470437.2546676649</v>
       </c>
       <c r="AE4" t="n">
-        <v>588931.2462990289</v>
+        <v>643673.006063216</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.801543096123571e-06</v>
+        <v>4.88564653112538e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.552777777777779</v>
       </c>
       <c r="AH4" t="n">
-        <v>532724.4747224443</v>
+        <v>582241.7577652798</v>
       </c>
     </row>
     <row r="5">
@@ -9575,28 +9575,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>387.09062800615</v>
+        <v>417.097292596178</v>
       </c>
       <c r="AB5" t="n">
-        <v>529.6344744712725</v>
+        <v>570.6909167639614</v>
       </c>
       <c r="AC5" t="n">
-        <v>479.086903574387</v>
+        <v>516.2249766377404</v>
       </c>
       <c r="AD5" t="n">
-        <v>387090.62800615</v>
+        <v>417097.292596178</v>
       </c>
       <c r="AE5" t="n">
-        <v>529634.4744712724</v>
+        <v>570690.9167639613</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.965622813048096e-06</v>
+        <v>5.171787230131418e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>8</v>
+        <v>7.134722222222221</v>
       </c>
       <c r="AH5" t="n">
-        <v>479086.903574387</v>
+        <v>516224.9766377403</v>
       </c>
     </row>
     <row r="6">
@@ -9681,28 +9681,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>346.7414719362899</v>
+        <v>386.6648978570208</v>
       </c>
       <c r="AB6" t="n">
-        <v>474.4269790573557</v>
+        <v>529.0519716993452</v>
       </c>
       <c r="AC6" t="n">
-        <v>429.1483340385681</v>
+        <v>478.5599940494649</v>
       </c>
       <c r="AD6" t="n">
-        <v>346741.4719362899</v>
+        <v>386664.8978570208</v>
       </c>
       <c r="AE6" t="n">
-        <v>474426.9790573557</v>
+        <v>529051.9716993453</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.074399895577446e-06</v>
+        <v>5.361484963734306e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>7</v>
+        <v>6.881944444444445</v>
       </c>
       <c r="AH6" t="n">
-        <v>429148.3340385681</v>
+        <v>478559.9940494649</v>
       </c>
     </row>
     <row r="7">
@@ -9787,28 +9787,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>334.4334431725388</v>
+        <v>374.3568690932697</v>
       </c>
       <c r="AB7" t="n">
-        <v>457.586591110885</v>
+        <v>512.2115837528745</v>
       </c>
       <c r="AC7" t="n">
-        <v>413.9151690820755</v>
+        <v>463.3268290929722</v>
       </c>
       <c r="AD7" t="n">
-        <v>334433.4431725388</v>
+        <v>374356.8690932698</v>
       </c>
       <c r="AE7" t="n">
-        <v>457586.591110885</v>
+        <v>512211.5837528745</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.114315295609225e-06</v>
+        <v>5.431093936008756e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>7</v>
+        <v>6.794444444444445</v>
       </c>
       <c r="AH7" t="n">
-        <v>413915.1690820755</v>
+        <v>463326.8290929722</v>
       </c>
     </row>
     <row r="8">
@@ -9893,28 +9893,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>336.1803542065199</v>
+        <v>376.1037801272509</v>
       </c>
       <c r="AB8" t="n">
-        <v>459.9767918558535</v>
+        <v>514.601784497843</v>
       </c>
       <c r="AC8" t="n">
-        <v>416.0772524226121</v>
+        <v>465.4889124335089</v>
       </c>
       <c r="AD8" t="n">
-        <v>336180.3542065199</v>
+        <v>376103.7801272509</v>
       </c>
       <c r="AE8" t="n">
-        <v>459976.7918558535</v>
+        <v>514601.7844978431</v>
       </c>
       <c r="AF8" t="n">
-        <v>3.113248853623643e-06</v>
+        <v>5.429234154306766e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>7</v>
+        <v>6.797222222222222</v>
       </c>
       <c r="AH8" t="n">
-        <v>416077.2524226121</v>
+        <v>465488.9124335088</v>
       </c>
     </row>
   </sheetData>
@@ -10190,28 +10190,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1837.354943357818</v>
+        <v>1930.306430417891</v>
       </c>
       <c r="AB2" t="n">
-        <v>2513.950091881455</v>
+        <v>2641.13041720724</v>
       </c>
       <c r="AC2" t="n">
-        <v>2274.022223463402</v>
+        <v>2389.064637038802</v>
       </c>
       <c r="AD2" t="n">
-        <v>1837354.943357819</v>
+        <v>1930306.430417891</v>
       </c>
       <c r="AE2" t="n">
-        <v>2513950.091881454</v>
+        <v>2641130.41720724</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.221990758998984e-06</v>
+        <v>2.077303301175883e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.71388888888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>2274022.223463402</v>
+        <v>2389064.637038802</v>
       </c>
     </row>
     <row r="3">
@@ -10296,28 +10296,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>685.3335459016402</v>
+        <v>736.8500803202948</v>
       </c>
       <c r="AB3" t="n">
-        <v>937.7035922848061</v>
+        <v>1008.190787425505</v>
       </c>
       <c r="AC3" t="n">
-        <v>848.2104775124011</v>
+        <v>911.9704736782717</v>
       </c>
       <c r="AD3" t="n">
-        <v>685333.5459016402</v>
+        <v>736850.0803202947</v>
       </c>
       <c r="AE3" t="n">
-        <v>937703.5922848061</v>
+        <v>1008190.787425505</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.191495581391318e-06</v>
+        <v>3.725397243974029e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.319444444444445</v>
       </c>
       <c r="AH3" t="n">
-        <v>848210.4775124011</v>
+        <v>911970.4736782716</v>
       </c>
     </row>
     <row r="4">
@@ -10402,28 +10402,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>536.9944019320836</v>
+        <v>578.2588518814604</v>
       </c>
       <c r="AB4" t="n">
-        <v>734.7394312444977</v>
+        <v>791.1992721242852</v>
       </c>
       <c r="AC4" t="n">
-        <v>664.6169311397906</v>
+        <v>715.6883240478957</v>
       </c>
       <c r="AD4" t="n">
-        <v>536994.4019320837</v>
+        <v>578258.8518814604</v>
       </c>
       <c r="AE4" t="n">
-        <v>734739.4312444978</v>
+        <v>791199.2721242852</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.545887606564309e-06</v>
+        <v>4.327840198948021e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.022222222222222</v>
       </c>
       <c r="AH4" t="n">
-        <v>664616.9311397906</v>
+        <v>715688.3240478956</v>
       </c>
     </row>
     <row r="5">
@@ -10508,28 +10508,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>469.3406947624672</v>
+        <v>510.5198038572724</v>
       </c>
       <c r="AB5" t="n">
-        <v>642.1726444241159</v>
+        <v>698.5157181817058</v>
       </c>
       <c r="AC5" t="n">
-        <v>580.8845885352447</v>
+        <v>631.8503584114109</v>
       </c>
       <c r="AD5" t="n">
-        <v>469340.6947624672</v>
+        <v>510519.8038572724</v>
       </c>
       <c r="AE5" t="n">
-        <v>642172.6444241159</v>
+        <v>698515.7181817058</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.731906657121916e-06</v>
+        <v>4.644060256226901e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>8</v>
+        <v>7.476388888888888</v>
       </c>
       <c r="AH5" t="n">
-        <v>580884.5885352447</v>
+        <v>631850.3584114108</v>
       </c>
     </row>
     <row r="6">
@@ -10614,28 +10614,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>435.0198755826515</v>
+        <v>466.0322410627506</v>
       </c>
       <c r="AB6" t="n">
-        <v>595.2133854946115</v>
+        <v>637.6458721134877</v>
       </c>
       <c r="AC6" t="n">
-        <v>538.4070553702384</v>
+        <v>576.7898450205779</v>
       </c>
       <c r="AD6" t="n">
-        <v>435019.8755826515</v>
+        <v>466032.2410627506</v>
       </c>
       <c r="AE6" t="n">
-        <v>595213.3854946116</v>
+        <v>637645.8721134877</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.848370758340591e-06</v>
+        <v>4.842041509479765e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>8</v>
+        <v>7.170833333333334</v>
       </c>
       <c r="AH6" t="n">
-        <v>538407.0553702384</v>
+        <v>576789.8450205779</v>
       </c>
     </row>
     <row r="7">
@@ -10720,28 +10720,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>400.0949278337183</v>
+        <v>441.359288274544</v>
       </c>
       <c r="AB7" t="n">
-        <v>547.4275312045694</v>
+        <v>603.8872496148086</v>
       </c>
       <c r="AC7" t="n">
-        <v>495.1818159457702</v>
+        <v>546.2530980726485</v>
       </c>
       <c r="AD7" t="n">
-        <v>400094.9278337183</v>
+        <v>441359.2882745441</v>
       </c>
       <c r="AE7" t="n">
-        <v>547427.5312045694</v>
+        <v>603887.2496148086</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.928660403877709e-06</v>
+        <v>4.978528585585906e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>7</v>
+        <v>6.973611111111111</v>
       </c>
       <c r="AH7" t="n">
-        <v>495181.8159457701</v>
+        <v>546253.0980726485</v>
       </c>
     </row>
     <row r="8">
@@ -10826,28 +10826,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>378.795016402985</v>
+        <v>420.0593768438108</v>
       </c>
       <c r="AB8" t="n">
-        <v>518.2840526992675</v>
+        <v>574.7437711095067</v>
       </c>
       <c r="AC8" t="n">
-        <v>468.8197501258853</v>
+        <v>519.8910322527637</v>
       </c>
       <c r="AD8" t="n">
-        <v>378795.016402985</v>
+        <v>420059.3768438108</v>
       </c>
       <c r="AE8" t="n">
-        <v>518284.0526992675</v>
+        <v>574743.7711095067</v>
       </c>
       <c r="AF8" t="n">
-        <v>2.989833467144083e-06</v>
+        <v>5.082518738809632e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>7</v>
+        <v>6.830555555555556</v>
       </c>
       <c r="AH8" t="n">
-        <v>468819.7501258852</v>
+        <v>519891.0322527637</v>
       </c>
     </row>
     <row r="9">
@@ -10932,28 +10932,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>366.3542571102594</v>
+        <v>407.6186175510853</v>
       </c>
       <c r="AB9" t="n">
-        <v>501.262056987396</v>
+        <v>557.7217753976353</v>
       </c>
       <c r="AC9" t="n">
-        <v>453.4223097942337</v>
+        <v>504.4935919211122</v>
       </c>
       <c r="AD9" t="n">
-        <v>366354.2571102594</v>
+        <v>407618.6175510853</v>
       </c>
       <c r="AE9" t="n">
-        <v>501262.056987396</v>
+        <v>557721.7753976353</v>
       </c>
       <c r="AF9" t="n">
-        <v>3.024537416497123e-06</v>
+        <v>5.141513152657708e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>7</v>
+        <v>6.752777777777777</v>
       </c>
       <c r="AH9" t="n">
-        <v>453422.3097942338</v>
+        <v>504493.5919211122</v>
       </c>
     </row>
     <row r="10">
@@ -11038,28 +11038,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>365.7908117029228</v>
+        <v>407.0551721437487</v>
       </c>
       <c r="AB10" t="n">
-        <v>500.4911261236212</v>
+        <v>556.9508445338604</v>
       </c>
       <c r="AC10" t="n">
-        <v>452.7249554900893</v>
+        <v>503.7962376169677</v>
       </c>
       <c r="AD10" t="n">
-        <v>365790.8117029229</v>
+        <v>407055.1721437487</v>
       </c>
       <c r="AE10" t="n">
-        <v>500491.1261236212</v>
+        <v>556950.8445338603</v>
       </c>
       <c r="AF10" t="n">
-        <v>3.028066631685568e-06</v>
+        <v>5.147512584574461e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>7</v>
+        <v>6.744444444444444</v>
       </c>
       <c r="AH10" t="n">
-        <v>452724.9554900893</v>
+        <v>503796.2376169678</v>
       </c>
     </row>
   </sheetData>
@@ -11335,28 +11335,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>711.5027662766136</v>
+        <v>769.0663035889659</v>
       </c>
       <c r="AB2" t="n">
-        <v>973.5094741063668</v>
+        <v>1052.270445381163</v>
       </c>
       <c r="AC2" t="n">
-        <v>880.5990962267826</v>
+        <v>951.8432309448298</v>
       </c>
       <c r="AD2" t="n">
-        <v>711502.7662766136</v>
+        <v>769066.3035889659</v>
       </c>
       <c r="AE2" t="n">
-        <v>973509.4741063669</v>
+        <v>1052270.445381163</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.039168075956195e-06</v>
+        <v>3.677102589565196e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.83472222222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>880599.0962267827</v>
+        <v>951843.2309448298</v>
       </c>
     </row>
     <row r="3">
@@ -11441,28 +11441,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>399.3695922561836</v>
+        <v>437.8021777007996</v>
       </c>
       <c r="AB3" t="n">
-        <v>546.4350950678391</v>
+        <v>599.0202539991683</v>
       </c>
       <c r="AC3" t="n">
-        <v>494.2840965210365</v>
+        <v>541.8506016876937</v>
       </c>
       <c r="AD3" t="n">
-        <v>399369.5922561836</v>
+        <v>437802.1777007996</v>
       </c>
       <c r="AE3" t="n">
-        <v>546435.0950678391</v>
+        <v>599020.2539991683</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.830781459164031e-06</v>
+        <v>5.104568846834382e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.805555555555555</v>
       </c>
       <c r="AH3" t="n">
-        <v>494284.0965210365</v>
+        <v>541850.6016876937</v>
       </c>
     </row>
     <row r="4">
@@ -11547,28 +11547,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>334.5520246964133</v>
+        <v>363.3765532884264</v>
       </c>
       <c r="AB4" t="n">
-        <v>457.7488395832976</v>
+        <v>497.1878312513428</v>
       </c>
       <c r="AC4" t="n">
-        <v>414.0619327879982</v>
+        <v>449.7369224442177</v>
       </c>
       <c r="AD4" t="n">
-        <v>334552.0246964133</v>
+        <v>363376.5532884264</v>
       </c>
       <c r="AE4" t="n">
-        <v>457748.8395832976</v>
+        <v>497187.8312513428</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.112205107655723e-06</v>
+        <v>5.612042281140891e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.1</v>
       </c>
       <c r="AH4" t="n">
-        <v>414061.9327879982</v>
+        <v>449736.9224442177</v>
       </c>
     </row>
     <row r="5">
@@ -11653,28 +11653,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>305.3874719565229</v>
+        <v>343.7347165465673</v>
       </c>
       <c r="AB5" t="n">
-        <v>417.8446118753199</v>
+        <v>470.3130036844514</v>
       </c>
       <c r="AC5" t="n">
-        <v>377.9661085665344</v>
+        <v>425.4269907012529</v>
       </c>
       <c r="AD5" t="n">
-        <v>305387.4719565229</v>
+        <v>343734.7165465673</v>
       </c>
       <c r="AE5" t="n">
-        <v>417844.6118753199</v>
+        <v>470313.0036844513</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.196361755508806e-06</v>
+        <v>5.763796632044306e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.912500000000001</v>
       </c>
       <c r="AH5" t="n">
-        <v>377966.1085665345</v>
+        <v>425426.9907012529</v>
       </c>
     </row>
     <row r="6">
@@ -11759,28 +11759,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>306.9322297217518</v>
+        <v>345.2794743117961</v>
       </c>
       <c r="AB6" t="n">
-        <v>419.9582175996087</v>
+        <v>472.4266094087402</v>
       </c>
       <c r="AC6" t="n">
-        <v>379.8779947269616</v>
+        <v>427.33887686168</v>
       </c>
       <c r="AD6" t="n">
-        <v>306932.2297217518</v>
+        <v>345279.4743117961</v>
       </c>
       <c r="AE6" t="n">
-        <v>419958.2175996087</v>
+        <v>472426.6094087402</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.196043582927131e-06</v>
+        <v>5.763222891587204e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>7</v>
+        <v>6.913888888888889</v>
       </c>
       <c r="AH6" t="n">
-        <v>379877.9947269616</v>
+        <v>427338.8768616799</v>
       </c>
     </row>
   </sheetData>
@@ -12056,28 +12056,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>489.2843363599</v>
+        <v>535.372346656689</v>
       </c>
       <c r="AB2" t="n">
-        <v>669.4604147090937</v>
+        <v>732.5200636566746</v>
       </c>
       <c r="AC2" t="n">
-        <v>605.5680523228505</v>
+        <v>662.6093768796472</v>
       </c>
       <c r="AD2" t="n">
-        <v>489284.3363599</v>
+        <v>535372.3466566891</v>
       </c>
       <c r="AE2" t="n">
-        <v>669460.4147090937</v>
+        <v>732520.0636566746</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.465841877912564e-06</v>
+        <v>4.600472755735786e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.333333333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>605568.0523228504</v>
+        <v>662609.3768796473</v>
       </c>
     </row>
     <row r="3">
@@ -12162,28 +12162,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>307.0653758932057</v>
+        <v>343.9016656905184</v>
       </c>
       <c r="AB3" t="n">
-        <v>420.1403940653865</v>
+        <v>470.5414308684817</v>
       </c>
       <c r="AC3" t="n">
-        <v>380.0427845265318</v>
+        <v>425.6336171154392</v>
       </c>
       <c r="AD3" t="n">
-        <v>307065.3758932057</v>
+        <v>343901.6656905184</v>
       </c>
       <c r="AE3" t="n">
-        <v>420140.3940653866</v>
+        <v>470541.4308684817</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.16134848823508e-06</v>
+        <v>5.898065776960455e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.280555555555556</v>
       </c>
       <c r="AH3" t="n">
-        <v>380042.7845265318</v>
+        <v>425633.6171154391</v>
       </c>
     </row>
     <row r="4">
@@ -12268,28 +12268,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>291.2898007025972</v>
+        <v>319.045051709577</v>
       </c>
       <c r="AB4" t="n">
-        <v>398.5555561203377</v>
+        <v>436.5315150233428</v>
       </c>
       <c r="AC4" t="n">
-        <v>360.5179732204481</v>
+        <v>394.8695599053435</v>
       </c>
       <c r="AD4" t="n">
-        <v>291289.8007025972</v>
+        <v>319045.051709577</v>
       </c>
       <c r="AE4" t="n">
-        <v>398555.5561203377</v>
+        <v>436531.5150233427</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.248183242537915e-06</v>
+        <v>6.060071672390936e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.086111111111112</v>
       </c>
       <c r="AH4" t="n">
-        <v>360517.9732204481</v>
+        <v>394869.5599053435</v>
       </c>
     </row>
   </sheetData>
@@ -22010,28 +22010,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>361.3914970330392</v>
+        <v>397.1735362729893</v>
       </c>
       <c r="AB2" t="n">
-        <v>494.4717897082207</v>
+        <v>543.4303543884805</v>
       </c>
       <c r="AC2" t="n">
-        <v>447.280096093983</v>
+        <v>491.5661240749358</v>
       </c>
       <c r="AD2" t="n">
-        <v>361391.4970330392</v>
+        <v>397173.5362729894</v>
       </c>
       <c r="AE2" t="n">
-        <v>494471.7897082207</v>
+        <v>543430.3543884805</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.825765150323937e-06</v>
+        <v>5.434051173639377e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.426388888888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>447280.096093983</v>
+        <v>491566.1240749358</v>
       </c>
     </row>
     <row r="3">
@@ -22116,28 +22116,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>274.5664892659422</v>
+        <v>310.2631876513208</v>
       </c>
       <c r="AB3" t="n">
-        <v>375.6739836322756</v>
+        <v>424.5157811903377</v>
       </c>
       <c r="AC3" t="n">
-        <v>339.820185896158</v>
+        <v>384.0005908451719</v>
       </c>
       <c r="AD3" t="n">
-        <v>274566.4892659422</v>
+        <v>310263.1876513208</v>
       </c>
       <c r="AE3" t="n">
-        <v>375673.9836322756</v>
+        <v>424515.7811903377</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.253984110861986e-06</v>
+        <v>6.257532114658012e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.316666666666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>339820.185896158</v>
+        <v>384000.5908451719</v>
       </c>
     </row>
   </sheetData>
@@ -22413,28 +22413,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>257.5412009313364</v>
+        <v>291.0642165857296</v>
       </c>
       <c r="AB2" t="n">
-        <v>352.3792330299903</v>
+        <v>398.2469019795706</v>
       </c>
       <c r="AC2" t="n">
-        <v>318.748653597073</v>
+        <v>360.238776597677</v>
       </c>
       <c r="AD2" t="n">
-        <v>257541.2009313364</v>
+        <v>291064.2165857296</v>
       </c>
       <c r="AE2" t="n">
-        <v>352379.2330299903</v>
+        <v>398246.9019795706</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.083689532908892e-06</v>
+        <v>6.360415937871272e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.28611111111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>318748.653597073</v>
+        <v>360238.776597677</v>
       </c>
     </row>
   </sheetData>
@@ -22710,28 +22710,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1011.009905279353</v>
+        <v>1080.296146216093</v>
       </c>
       <c r="AB2" t="n">
-        <v>1383.308355012338</v>
+        <v>1478.108846555205</v>
       </c>
       <c r="AC2" t="n">
-        <v>1251.287347095429</v>
+        <v>1337.040212778771</v>
       </c>
       <c r="AD2" t="n">
-        <v>1011009.905279353</v>
+        <v>1080296.146216093</v>
       </c>
       <c r="AE2" t="n">
-        <v>1383308.355012338</v>
+        <v>1478108.846555205</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.696567696789669e-06</v>
+        <v>2.980802517437438e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.59722222222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>1251287.347095429</v>
+        <v>1337040.212778771</v>
       </c>
     </row>
     <row r="3">
@@ -22816,28 +22816,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>502.2236714152526</v>
+        <v>541.7793239499816</v>
       </c>
       <c r="AB3" t="n">
-        <v>687.1645837750018</v>
+        <v>741.2863726452468</v>
       </c>
       <c r="AC3" t="n">
-        <v>621.5825603410657</v>
+        <v>670.5390416419422</v>
       </c>
       <c r="AD3" t="n">
-        <v>502223.6714152526</v>
+        <v>541779.3239499816</v>
       </c>
       <c r="AE3" t="n">
-        <v>687164.5837750018</v>
+        <v>741286.3726452468</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.56162334628645e-06</v>
+        <v>4.500671169082032e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.343055555555557</v>
       </c>
       <c r="AH3" t="n">
-        <v>621582.5603410656</v>
+        <v>670539.0416419421</v>
       </c>
     </row>
     <row r="4">
@@ -22922,28 +22922,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>407.1604047024285</v>
+        <v>446.6307163825859</v>
       </c>
       <c r="AB4" t="n">
-        <v>557.094828363179</v>
+        <v>611.0998501112264</v>
       </c>
       <c r="AC4" t="n">
-        <v>503.9264798316988</v>
+        <v>552.7773381006365</v>
       </c>
       <c r="AD4" t="n">
-        <v>407160.4047024285</v>
+        <v>446630.7163825859</v>
       </c>
       <c r="AE4" t="n">
-        <v>557094.828363179</v>
+        <v>611099.8501112263</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.870901513395759e-06</v>
+        <v>5.044060708357311e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.444444444444445</v>
       </c>
       <c r="AH4" t="n">
-        <v>503926.4798316988</v>
+        <v>552777.3381006365</v>
       </c>
     </row>
     <row r="5">
@@ -23028,28 +23028,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>365.1306992700585</v>
+        <v>394.8614666891717</v>
       </c>
       <c r="AB5" t="n">
-        <v>499.587931170871</v>
+        <v>540.2668787825901</v>
       </c>
       <c r="AC5" t="n">
-        <v>451.9079601959874</v>
+        <v>488.7045661409056</v>
       </c>
       <c r="AD5" t="n">
-        <v>365130.6992700585</v>
+        <v>394861.4666891717</v>
       </c>
       <c r="AE5" t="n">
-        <v>499587.931170871</v>
+        <v>540266.87878259</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.035542129717629e-06</v>
+        <v>5.33332777652873e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>8</v>
+        <v>7.040277777777778</v>
       </c>
       <c r="AH5" t="n">
-        <v>451907.9601959874</v>
+        <v>488704.5661409056</v>
       </c>
     </row>
     <row r="6">
@@ -23134,28 +23134,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>329.8455629586781</v>
+        <v>369.4011259848561</v>
       </c>
       <c r="AB6" t="n">
-        <v>451.3092509992906</v>
+        <v>505.4309173999872</v>
       </c>
       <c r="AC6" t="n">
-        <v>408.2369295004295</v>
+        <v>457.1933000200795</v>
       </c>
       <c r="AD6" t="n">
-        <v>329845.5629586781</v>
+        <v>369401.1259848561</v>
       </c>
       <c r="AE6" t="n">
-        <v>451309.2509992906</v>
+        <v>505430.9173999872</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.126479143031858e-06</v>
+        <v>5.493100521658924e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>7</v>
+        <v>6.836111111111111</v>
       </c>
       <c r="AH6" t="n">
-        <v>408236.9295004295</v>
+        <v>457193.3000200795</v>
       </c>
     </row>
     <row r="7">
@@ -23240,28 +23240,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>328.329238893783</v>
+        <v>367.884801919961</v>
       </c>
       <c r="AB7" t="n">
-        <v>449.2345495182046</v>
+        <v>503.3562159189012</v>
       </c>
       <c r="AC7" t="n">
-        <v>406.3602346168366</v>
+        <v>455.3166051364865</v>
       </c>
       <c r="AD7" t="n">
-        <v>328329.238893783</v>
+        <v>367884.801919961</v>
       </c>
       <c r="AE7" t="n">
-        <v>449234.5495182046</v>
+        <v>503356.2159189011</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.134018760040991e-06</v>
+        <v>5.50634733132285e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>7</v>
+        <v>6.819444444444445</v>
       </c>
       <c r="AH7" t="n">
-        <v>406360.2346168366</v>
+        <v>455316.6051364865</v>
       </c>
     </row>
   </sheetData>
@@ -23537,28 +23537,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1620.996445293375</v>
+        <v>1703.0596994727</v>
       </c>
       <c r="AB2" t="n">
-        <v>2217.918849766406</v>
+        <v>2330.201414509818</v>
       </c>
       <c r="AC2" t="n">
-        <v>2006.243787613356</v>
+        <v>2107.810261967227</v>
       </c>
       <c r="AD2" t="n">
-        <v>1620996.445293375</v>
+        <v>1703059.6994727</v>
       </c>
       <c r="AE2" t="n">
-        <v>2217918.849766406</v>
+        <v>2330201.414509818</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.309702236239204e-06</v>
+        <v>2.239444867614412e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.72361111111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>2006243.787613356</v>
+        <v>2107810.261967227</v>
       </c>
     </row>
     <row r="3">
@@ -23643,28 +23643,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>647.2186094755339</v>
+        <v>688.2503260737473</v>
       </c>
       <c r="AB3" t="n">
-        <v>885.5530547542877</v>
+        <v>941.6944595955425</v>
       </c>
       <c r="AC3" t="n">
-        <v>801.0371140900562</v>
+        <v>851.8204620482181</v>
       </c>
       <c r="AD3" t="n">
-        <v>647218.6094755338</v>
+        <v>688250.3260737472</v>
       </c>
       <c r="AE3" t="n">
-        <v>885553.0547542877</v>
+        <v>941694.4595955425</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.261768132185308e-06</v>
+        <v>3.86737144917811e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.105555555555556</v>
       </c>
       <c r="AH3" t="n">
-        <v>801037.1140900562</v>
+        <v>851820.4620482181</v>
       </c>
     </row>
     <row r="4">
@@ -23749,28 +23749,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>502.0252885149763</v>
+        <v>543.0569156046386</v>
       </c>
       <c r="AB4" t="n">
-        <v>686.893147538808</v>
+        <v>743.0344299105144</v>
       </c>
       <c r="AC4" t="n">
-        <v>621.3370295982908</v>
+        <v>672.1202667752264</v>
       </c>
       <c r="AD4" t="n">
-        <v>502025.2885149763</v>
+        <v>543056.9156046385</v>
       </c>
       <c r="AE4" t="n">
-        <v>686893.1475388079</v>
+        <v>743034.4299105144</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.60665292800693e-06</v>
+        <v>4.457086015245259e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.900000000000001</v>
       </c>
       <c r="AH4" t="n">
-        <v>621337.0295982908</v>
+        <v>672120.2667752263</v>
       </c>
     </row>
     <row r="5">
@@ -23855,28 +23855,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>448.4959906452445</v>
+        <v>489.3570255343146</v>
       </c>
       <c r="AB5" t="n">
-        <v>613.6520006474885</v>
+        <v>669.559871244348</v>
       </c>
       <c r="AC5" t="n">
-        <v>555.0859149716838</v>
+        <v>605.6580168659681</v>
       </c>
       <c r="AD5" t="n">
-        <v>448495.9906452445</v>
+        <v>489357.0255343146</v>
       </c>
       <c r="AE5" t="n">
-        <v>613652.0006474885</v>
+        <v>669559.871244348</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.788733121157812e-06</v>
+        <v>4.768422854080366e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>8</v>
+        <v>7.384722222222223</v>
       </c>
       <c r="AH5" t="n">
-        <v>555085.9149716838</v>
+        <v>605658.0168659681</v>
       </c>
     </row>
     <row r="6">
@@ -23961,28 +23961,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>416.092819655998</v>
+        <v>446.8666294817957</v>
       </c>
       <c r="AB6" t="n">
-        <v>569.3165525729884</v>
+        <v>611.4226368213166</v>
       </c>
       <c r="AC6" t="n">
-        <v>514.9817798362216</v>
+        <v>553.0693185001496</v>
       </c>
       <c r="AD6" t="n">
-        <v>416092.819655998</v>
+        <v>446866.6294817957</v>
       </c>
       <c r="AE6" t="n">
-        <v>569316.5525729883</v>
+        <v>611422.6368213166</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.901124641034334e-06</v>
+        <v>4.960599827889007e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>8</v>
+        <v>7.098611111111111</v>
       </c>
       <c r="AH6" t="n">
-        <v>514981.7798362215</v>
+        <v>553069.3185001496</v>
       </c>
     </row>
     <row r="7">
@@ -24067,28 +24067,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>381.1764526344968</v>
+        <v>422.1227388695874</v>
       </c>
       <c r="AB7" t="n">
-        <v>521.5424388127736</v>
+        <v>577.5669540622822</v>
       </c>
       <c r="AC7" t="n">
-        <v>471.7671604418919</v>
+        <v>522.4447745868885</v>
       </c>
       <c r="AD7" t="n">
-        <v>381176.4526344968</v>
+        <v>422122.7388695874</v>
       </c>
       <c r="AE7" t="n">
-        <v>521542.4388127736</v>
+        <v>577566.9540622822</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.981933847278007e-06</v>
+        <v>5.098774564994164e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>7</v>
+        <v>6.905555555555555</v>
       </c>
       <c r="AH7" t="n">
-        <v>471767.1604418919</v>
+        <v>522444.7745868885</v>
       </c>
     </row>
     <row r="8">
@@ -24173,28 +24173,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>361.5564679298664</v>
+        <v>402.5027541649569</v>
       </c>
       <c r="AB8" t="n">
-        <v>494.697510167262</v>
+        <v>550.7220254167709</v>
       </c>
       <c r="AC8" t="n">
-        <v>447.484274109214</v>
+        <v>498.1618882542106</v>
       </c>
       <c r="AD8" t="n">
-        <v>361556.4679298663</v>
+        <v>402502.7541649569</v>
       </c>
       <c r="AE8" t="n">
-        <v>494697.510167262</v>
+        <v>550722.0254167708</v>
       </c>
       <c r="AF8" t="n">
-        <v>3.037981333443344e-06</v>
+        <v>5.194609520270769e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>7</v>
+        <v>6.779166666666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>447484.274109214</v>
+        <v>498161.8882542106</v>
       </c>
     </row>
     <row r="9">
@@ -24279,28 +24279,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>357.5077248631699</v>
+        <v>398.4540110982605</v>
       </c>
       <c r="AB9" t="n">
-        <v>489.1578412854701</v>
+        <v>545.1823565349788</v>
       </c>
       <c r="AC9" t="n">
-        <v>442.4733034505262</v>
+        <v>493.1509175955229</v>
       </c>
       <c r="AD9" t="n">
-        <v>357507.7248631699</v>
+        <v>398454.0110982605</v>
       </c>
       <c r="AE9" t="n">
-        <v>489157.8412854701</v>
+        <v>545182.3565349788</v>
       </c>
       <c r="AF9" t="n">
-        <v>3.050436330368975e-06</v>
+        <v>5.215906176998903e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>7</v>
+        <v>6.751388888888889</v>
       </c>
       <c r="AH9" t="n">
-        <v>442473.3034505262</v>
+        <v>493150.9175955228</v>
       </c>
     </row>
     <row r="10">
@@ -24385,28 +24385,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>359.0243183755668</v>
+        <v>399.9706046106575</v>
       </c>
       <c r="AB10" t="n">
-        <v>491.2329114365154</v>
+        <v>547.257426686024</v>
       </c>
       <c r="AC10" t="n">
-        <v>444.350331818735</v>
+        <v>495.0279459637316</v>
       </c>
       <c r="AD10" t="n">
-        <v>359024.3183755669</v>
+        <v>399970.6046106575</v>
       </c>
       <c r="AE10" t="n">
-        <v>491232.9114365154</v>
+        <v>547257.4266860241</v>
       </c>
       <c r="AF10" t="n">
-        <v>3.050139782823126e-06</v>
+        <v>5.215399113743472e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>7</v>
+        <v>6.751388888888889</v>
       </c>
       <c r="AH10" t="n">
-        <v>444350.3318187349</v>
+        <v>495027.9459637316</v>
       </c>
     </row>
   </sheetData>
@@ -24682,28 +24682,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>258.5172954886314</v>
+        <v>299.0363456217754</v>
       </c>
       <c r="AB2" t="n">
-        <v>353.7147686657005</v>
+        <v>409.1547206321994</v>
       </c>
       <c r="AC2" t="n">
-        <v>319.9567275860411</v>
+        <v>370.1055683473186</v>
       </c>
       <c r="AD2" t="n">
-        <v>258517.2954886314</v>
+        <v>299036.3456217754</v>
       </c>
       <c r="AE2" t="n">
-        <v>353714.7686657006</v>
+        <v>409154.7206321994</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.831173445454071e-06</v>
+        <v>6.068508705091675e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.347222222222221</v>
       </c>
       <c r="AH2" t="n">
-        <v>319956.7275860411</v>
+        <v>370105.5683473186</v>
       </c>
     </row>
   </sheetData>
@@ -24979,28 +24979,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>555.2959439531406</v>
+        <v>602.1871638285376</v>
       </c>
       <c r="AB2" t="n">
-        <v>759.7804084447581</v>
+        <v>823.9390441728958</v>
       </c>
       <c r="AC2" t="n">
-        <v>687.2680326212902</v>
+        <v>745.3034582027454</v>
       </c>
       <c r="AD2" t="n">
-        <v>555295.9439531406</v>
+        <v>602187.1638285376</v>
       </c>
       <c r="AE2" t="n">
-        <v>759780.4084447582</v>
+        <v>823939.0441728958</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.309711588481698e-06</v>
+        <v>4.255487777325484e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.819444444444445</v>
       </c>
       <c r="AH2" t="n">
-        <v>687268.0326212902</v>
+        <v>745303.4582027454</v>
       </c>
     </row>
     <row r="3">
@@ -25085,28 +25085,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>338.5073597410603</v>
+        <v>375.8497434407856</v>
       </c>
       <c r="AB3" t="n">
-        <v>463.1607034884503</v>
+        <v>514.2542002961136</v>
       </c>
       <c r="AC3" t="n">
-        <v>418.9572959976418</v>
+        <v>465.1745011801549</v>
       </c>
       <c r="AD3" t="n">
-        <v>338507.3597410603</v>
+        <v>375849.7434407856</v>
       </c>
       <c r="AE3" t="n">
-        <v>463160.7034884503</v>
+        <v>514254.2002961136</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.041131144817213e-06</v>
+        <v>5.60307896472939e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.458333333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>418957.2959976419</v>
+        <v>465174.501180155</v>
       </c>
     </row>
     <row r="4">
@@ -25191,28 +25191,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>299.0716218988974</v>
+        <v>327.2064433326867</v>
       </c>
       <c r="AB4" t="n">
-        <v>409.2029871908372</v>
+        <v>447.6982910972683</v>
       </c>
       <c r="AC4" t="n">
-        <v>370.1492284133425</v>
+        <v>404.9705945434422</v>
       </c>
       <c r="AD4" t="n">
-        <v>299071.6218988975</v>
+        <v>327206.4433326867</v>
       </c>
       <c r="AE4" t="n">
-        <v>409202.9871908372</v>
+        <v>447698.2910972683</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.230722148368348e-06</v>
+        <v>5.952387598035023e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.020833333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>370149.2284133425</v>
+        <v>404970.5945434422</v>
       </c>
     </row>
     <row r="5">
@@ -25297,28 +25297,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>300.7503427115765</v>
+        <v>328.8851641453658</v>
       </c>
       <c r="AB5" t="n">
-        <v>411.4998870666801</v>
+        <v>449.9951909731113</v>
       </c>
       <c r="AC5" t="n">
-        <v>372.2269153887543</v>
+        <v>407.0482815188539</v>
       </c>
       <c r="AD5" t="n">
-        <v>300750.3427115766</v>
+        <v>328885.1641453658</v>
       </c>
       <c r="AE5" t="n">
-        <v>411499.8870666801</v>
+        <v>449995.1909731113</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.230885448113009e-06</v>
+        <v>5.95268846679756e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>8</v>
+        <v>7.019444444444444</v>
       </c>
       <c r="AH5" t="n">
-        <v>372226.9153887543</v>
+        <v>407048.2815188539</v>
       </c>
     </row>
   </sheetData>
@@ -25594,28 +25594,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>803.6537629788176</v>
+        <v>861.7657562236393</v>
       </c>
       <c r="AB2" t="n">
-        <v>1099.594533209374</v>
+        <v>1179.105926087143</v>
       </c>
       <c r="AC2" t="n">
-        <v>994.6507742504908</v>
+        <v>1066.573711386947</v>
       </c>
       <c r="AD2" t="n">
-        <v>803653.7629788176</v>
+        <v>861765.7562236394</v>
       </c>
       <c r="AE2" t="n">
-        <v>1099594.533209374</v>
+        <v>1179105.926087143</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.920003022888267e-06</v>
+        <v>3.42994528187058e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.37222222222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>994650.7742504908</v>
+        <v>1066573.711386946</v>
       </c>
     </row>
     <row r="3">
@@ -25700,28 +25700,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>430.0732971557625</v>
+        <v>478.4714366511312</v>
       </c>
       <c r="AB3" t="n">
-        <v>588.4452586633038</v>
+        <v>654.6657282960886</v>
       </c>
       <c r="AC3" t="n">
-        <v>532.2848690645849</v>
+        <v>592.1853500166295</v>
       </c>
       <c r="AD3" t="n">
-        <v>430073.2971557626</v>
+        <v>478471.4366511313</v>
       </c>
       <c r="AE3" t="n">
-        <v>588445.2586633038</v>
+        <v>654665.7282960885</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.734888026788519e-06</v>
+        <v>4.885677872431932e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.984722222222222</v>
       </c>
       <c r="AH3" t="n">
-        <v>532284.8690645848</v>
+        <v>592185.3500166296</v>
       </c>
     </row>
     <row r="4">
@@ -25806,28 +25806,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>360.2592111641715</v>
+        <v>389.4005933954297</v>
       </c>
       <c r="AB4" t="n">
-        <v>492.9225462295091</v>
+        <v>532.7950710253655</v>
       </c>
       <c r="AC4" t="n">
-        <v>445.8787102385027</v>
+        <v>481.9458572292826</v>
       </c>
       <c r="AD4" t="n">
-        <v>360259.2111641715</v>
+        <v>389400.5933954297</v>
       </c>
       <c r="AE4" t="n">
-        <v>492922.5462295091</v>
+        <v>532795.0710253655</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.021976588841743e-06</v>
+        <v>5.398540637310384e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.226388888888888</v>
       </c>
       <c r="AH4" t="n">
-        <v>445878.7102385027</v>
+        <v>481945.8572292826</v>
       </c>
     </row>
     <row r="5">
@@ -25912,28 +25912,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>314.5546630454975</v>
+        <v>353.3243791545354</v>
       </c>
       <c r="AB5" t="n">
-        <v>430.3875671511826</v>
+        <v>483.4340031307291</v>
       </c>
       <c r="AC5" t="n">
-        <v>389.3119817950173</v>
+        <v>437.2957403758163</v>
       </c>
       <c r="AD5" t="n">
-        <v>314554.6630454975</v>
+        <v>353324.3791545354</v>
       </c>
       <c r="AE5" t="n">
-        <v>430387.5671511826</v>
+        <v>483434.0031307291</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.166778651082171e-06</v>
+        <v>5.657218954097382e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.895833333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>389311.9817950173</v>
+        <v>437295.7403758163</v>
       </c>
     </row>
     <row r="6">
@@ -26018,28 +26018,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>313.6706559933713</v>
+        <v>352.4403721024091</v>
       </c>
       <c r="AB6" t="n">
-        <v>429.1780297028248</v>
+        <v>482.2244656823711</v>
       </c>
       <c r="AC6" t="n">
-        <v>388.2178809031342</v>
+        <v>436.2016394839332</v>
       </c>
       <c r="AD6" t="n">
-        <v>313670.6559933713</v>
+        <v>352440.3721024091</v>
       </c>
       <c r="AE6" t="n">
-        <v>429178.0297028248</v>
+        <v>482224.4656823712</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.173696447758152e-06</v>
+        <v>5.669577093010116e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>7</v>
+        <v>6.880555555555556</v>
       </c>
       <c r="AH6" t="n">
-        <v>388217.8809031342</v>
+        <v>436201.6394839332</v>
       </c>
     </row>
   </sheetData>
